--- a/meta/objects/BlancoValueObjectPhpSample.xlsx
+++ b/meta/objects/BlancoValueObjectPhpSample.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObject/meta/objects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42466DBD-19E7-6140-A90D-DC7FA92E28ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C93CEE-7611-2243-B666-7B9FB4BB25CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="640"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>クラス名</t>
   </si>
@@ -127,10 +127,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>123</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>stringField1</t>
   </si>
   <si>
@@ -181,12 +177,46 @@
   <si>
     <t>PhpSample</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>dateField1</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>dateField2</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>datetime = java.util.Date ではデフォルト値をサポートしません。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"デフォルト"</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>123L</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>デフォルト値あり。integer型はLongにマッピングされます。</t>
+    <rPh sb="5" eb="6">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">ガタハ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -570,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -634,6 +664,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1046,14 +1077,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1072,7 +1103,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1099,7 +1130,7 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
@@ -1151,7 +1182,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
@@ -1200,33 +1231,33 @@
       <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="41"/>
+      <c r="F15" s="42"/>
       <c r="G15" s="16"/>
       <c r="H15" s="17"/>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="18"/>
       <c r="H16" s="31"/>
       <c r="I16" s="15"/>
@@ -1236,13 +1267,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>26</v>
-      </c>
       <c r="D17" s="21" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>19</v>
@@ -1254,14 +1285,14 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="19">
-        <f t="shared" ref="A18:A26" si="0">A17+1</f>
+        <f t="shared" ref="A18:A28" si="0">A17+1</f>
         <v>2</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="24"/>
@@ -1322,10 +1353,10 @@
         <v>23</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
@@ -1356,13 +1387,13 @@
         <v>7</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>19</v>
@@ -1378,10 +1409,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -1396,13 +1427,13 @@
         <v>9</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>19</v>
@@ -1418,10 +1449,10 @@
         <v>10</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
@@ -1431,20 +1462,36 @@
       <c r="I26" s="15"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
+      <c r="A27" s="19">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="E27" s="21" t="s">
+        <v>41</v>
+      </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
       <c r="H27" s="23"/>
       <c r="I27" s="15"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
+      <c r="A28" s="19">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
       <c r="F28" s="22"/>
@@ -1495,7 +1542,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D47">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D47" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/objects/BlancoValueObjectPhpSample.xlsx
+++ b/meta/objects/BlancoValueObjectPhpSample.xlsx
@@ -8,21 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObject/meta/objects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C93CEE-7611-2243-B666-7B9FB4BB25CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13D23E6-8429-6747-AB7D-4C776EC6A6FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
+    <sheet name="config" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="accessScope">config!$B$4:$B$6</definedName>
+    <definedName name="accessScope2">config!$B$4:$B$5</definedName>
+    <definedName name="adjustDefaultValue">config!$J$4:$J$5</definedName>
+    <definedName name="adjustFiledName">config!$H$4:$H$5</definedName>
+    <definedName name="createToString">config!$F$4:$F$5</definedName>
+    <definedName name="isAbstract">config!$D$4:$D$5</definedName>
+    <definedName name="Submit有無" localSheetId="1">#REF!</definedName>
     <definedName name="Submit有無">#REF!</definedName>
+    <definedName name="toString">config!$F$4:$F$5</definedName>
+    <definedName name="Validate実装パターン" localSheetId="1">#REF!</definedName>
     <definedName name="Validate実装パターン">#REF!</definedName>
+    <definedName name="チェック種別" localSheetId="1">#REF!</definedName>
     <definedName name="チェック種別">#REF!</definedName>
+    <definedName name="デリミタ" localSheetId="1">#REF!</definedName>
     <definedName name="デリミタ">#REF!</definedName>
+    <definedName name="デリミタ選択肢" localSheetId="1">#REF!</definedName>
     <definedName name="デリミタ選択肢">#REF!</definedName>
+    <definedName name="型" localSheetId="1">#REF!</definedName>
     <definedName name="型">#REF!</definedName>
+    <definedName name="項目型" localSheetId="1">#REF!</definedName>
     <definedName name="項目型">#REF!</definedName>
+    <definedName name="必須" localSheetId="1">#REF!</definedName>
     <definedName name="必須">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
@@ -38,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>クラス名</t>
   </si>
@@ -212,12 +231,77 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>アクセス</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>抽象クラス</t>
+    <rPh sb="0" eb="2">
+      <t>チュウショウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>toStringメソッドの生成</t>
+    <rPh sb="13" eb="15">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>フィールド名の変形</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>バリューオブジェクト定義書 設定シート</t>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>様式 ver 0.9.9 (2007.12.06)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>toStringメソッド</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>フィールド名の変形</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンケイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>デフォルト値の変形</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンケイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>public</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -249,8 +333,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,8 +371,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -596,11 +692,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -671,9 +835,40 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{3A19D4C8-723B-7D42-8362-D541808B34B0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -754,6 +949,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="valueObject"/>
+      <sheetName val="config"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1081,10 +1291,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1172,167 +1382,153 @@
       <c r="F9" s="12"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="33" t="s">
+    <row r="10" spans="1:9" s="35" customFormat="1">
+      <c r="A10" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:9" s="35" customFormat="1">
+      <c r="A11" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A15" s="43" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A17" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B17" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C17" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D17" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E17" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="19">
-        <v>1</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="15"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="19">
-        <f t="shared" ref="A18:A28" si="0">A17+1</f>
-        <v>2</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="31"/>
       <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="19">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
+      <c r="H19" s="30"/>
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="19">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" ref="A20:A30" si="0">A19+1</f>
+        <v>2</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="24"/>
@@ -1344,19 +1540,19 @@
     <row r="21" spans="1:9">
       <c r="A21" s="19">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
@@ -1366,16 +1562,16 @@
     <row r="22" spans="1:9">
       <c r="A22" s="19">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
       <c r="H22" s="23"/>
@@ -1384,19 +1580,19 @@
     <row r="23" spans="1:9">
       <c r="A23" s="19">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
@@ -1406,13 +1602,13 @@
     <row r="24" spans="1:9">
       <c r="A24" s="19">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -1424,13 +1620,13 @@
     <row r="25" spans="1:9">
       <c r="A25" s="19">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D25" s="32" t="s">
         <v>32</v>
@@ -1446,13 +1642,13 @@
     <row r="26" spans="1:9">
       <c r="A26" s="19">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
@@ -1464,17 +1660,19 @@
     <row r="27" spans="1:9">
       <c r="A27" s="19">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="41"/>
+        <v>27</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="E27" s="21" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
@@ -1484,13 +1682,13 @@
     <row r="28" spans="1:9">
       <c r="A28" s="19">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -1500,20 +1698,36 @@
       <c r="I28" s="15"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
+      <c r="A29" s="19">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="41"/>
+      <c r="E29" s="21" t="s">
+        <v>41</v>
+      </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
       <c r="H29" s="23"/>
       <c r="I29" s="15"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
+      <c r="A30" s="19">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
       <c r="F30" s="22"/>
@@ -1522,29 +1736,57 @@
       <c r="I30" s="15"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="25"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="29"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="23"/>
       <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D47" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D49" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{5C3FAC47-29F4-8A43-89F5-93527DDFC948}">
+      <formula1>createToString</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{EC2D82BC-D8A5-C34C-B774-4F979A3C0491}">
+      <formula1>adjustFiledName</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.59027777777777779" right="0.59027777777777779" top="0.59027777777777779" bottom="0.59027777777777779" header="0.51180555555555562" footer="0.11805555555555557"/>
@@ -1553,4 +1795,96 @@
     <oddFooter>&amp;C&amp;P / &amp;N ページ&amp;R&amp;D &amp;T</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBE0D8F-3EC2-204F-8814-2F3899B493D0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="3" width="8.83203125" style="49" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="49" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="49" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="49" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="49" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="49" bestFit="1" customWidth="1"/>
+    <col min="11" max="256" width="8.83203125" style="49" customWidth="1"/>
+    <col min="257" max="16384" width="10.83203125" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="19">
+      <c r="A1" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="48"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4" s="51"/>
+      <c r="D4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="J4" s="52"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="55"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>